--- a/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_2_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_2_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2958248.248607115</v>
+        <v>2958248.248607116</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800644</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800644</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177677</v>
+        <v>3940022.790763644</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177677</v>
+        <v>3940022.790763644</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570764594.539834</v>
+        <v>59483634.63502049</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +670,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D2" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468735</v>
       </c>
       <c r="E2" t="n">
         <v>404.3632896068686</v>
@@ -733,7 +733,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>383.0228566887534</v>
+        <v>384.5565566463266</v>
       </c>
       <c r="C3" t="n">
         <v>361.0999124455193</v>
@@ -761,7 +761,7 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I3" t="n">
         <v>108.929687778141</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T5" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
         <v>648.751427201877</v>
@@ -995,13 +995,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
         <v>108.929687778141</v>
@@ -1268,7 +1268,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S9" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T9" t="n">
         <v>392.6911708778912</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1627,10 +1627,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.470696320097</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H26" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>404.8896287079064</v>
       </c>
       <c r="G29" t="n">
-        <v>396.495661161239</v>
+        <v>397.8840054527399</v>
       </c>
       <c r="H29" t="n">
         <v>347.8590406129697</v>
@@ -2857,7 +2857,7 @@
         <v>648.7514272017715</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241667184</v>
+        <v>628.4626798752198</v>
       </c>
       <c r="W29" t="n">
         <v>638.373475980842</v>
@@ -2927,7 +2927,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151014818</v>
+        <v>406.6592151016879</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2973,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3255,13 +3255,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F35" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
         <v>397.8840054528454</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V38" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W38" t="n">
         <v>638.3734759809475</v>
@@ -3754,7 +3754,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3814,7 +3814,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y41" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="42">
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3966,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,7 +3988,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D44" t="n">
-        <v>408.9508114468717</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
         <v>404.3632896068686</v>
@@ -4039,7 +4039,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829089011</v>
       </c>
       <c r="V44" t="n">
         <v>629.8510241668239</v>
@@ -4076,7 +4076,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G45" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H45" t="n">
         <v>301.8178796392513</v>
@@ -4112,7 +4112,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
         <v>1711.662994324041</v>
@@ -4336,52 +4336,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>704.415592241276</v>
       </c>
       <c r="K2" t="n">
-        <v>2124.71495243113</v>
+        <v>2153.765102156984</v>
       </c>
       <c r="L2" t="n">
-        <v>3071.357825473565</v>
+        <v>3071.357825473567</v>
       </c>
       <c r="M2" t="n">
-        <v>3553.537024987068</v>
+        <v>3553.537024987069</v>
       </c>
       <c r="N2" t="n">
-        <v>4118.58008885974</v>
+        <v>4118.580088859741</v>
       </c>
       <c r="O2" t="n">
-        <v>5028.734971800483</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P2" t="n">
-        <v>5864.602299897897</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4391,22 +4391,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C3" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D3" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E3" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
         <v>250.9899876546879</v>
@@ -4470,25 +4470,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="C4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="D4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I4" t="n">
         <v>290.6133856211738</v>
@@ -4497,22 +4497,22 @@
         <v>440.0999956178874</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4524,22 +4524,22 @@
         <v>140.96</v>
       </c>
       <c r="T4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="U4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="V4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="W4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="X4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
     </row>
     <row r="5">
@@ -4573,34 +4573,34 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>2550.716641651425</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L5" t="n">
-        <v>3468.309364968008</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M5" t="n">
-        <v>3950.48856448151</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N5" t="n">
-        <v>4515.531628354182</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O5" t="n">
-        <v>5425.686511294926</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P5" t="n">
-        <v>6261.55383939234</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R5" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T5" t="n">
         <v>6118.11576243671</v>
@@ -4643,10 +4643,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4707,43 +4707,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="C7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="D7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="E7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="F7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="G7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="H7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="I7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="J7" t="n">
-        <v>290.4466099967136</v>
+        <v>373.1514491892474</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893196</v>
+        <v>390.5464437818534</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893196</v>
+        <v>390.5464437818534</v>
       </c>
       <c r="M7" t="n">
-        <v>307.8416045893196</v>
+        <v>390.5464437818534</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104935</v>
+        <v>390.5464437818534</v>
       </c>
       <c r="O7" t="n">
         <v>457.4949902104935</v>
@@ -4758,25 +4758,25 @@
         <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="T7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="U7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="V7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="W7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="X7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="Y7" t="n">
-        <v>140.96</v>
+        <v>223.6648391925338</v>
       </c>
     </row>
     <row r="8">
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4810,52 +4810,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>974.1471760311915</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1713.790319599031</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>2631.383042915614</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>6175.514118919006</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R8" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="9">
@@ -4865,22 +4865,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C9" t="n">
-        <v>1920.815456050962</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D9" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E9" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F9" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G9" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H9" t="n">
         <v>250.9899876546879</v>
@@ -4916,25 +4916,25 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S9" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T9" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U9" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V9" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W9" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X9" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y9" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="10">
@@ -4971,16 +4971,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>326.8726278290461</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
         <v>457.4949902104935</v>
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5047,52 +5047,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>3468.309364968008</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M11" t="n">
-        <v>3950.48856448151</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N11" t="n">
-        <v>4515.531628354182</v>
+        <v>3983.28512581224</v>
       </c>
       <c r="O11" t="n">
-        <v>5425.686511294926</v>
+        <v>4893.440008752984</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R11" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5208,49 +5208,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
@@ -5284,52 +5284,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K14" t="n">
-        <v>2124.71495243113</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L14" t="n">
-        <v>3071.357825473565</v>
+        <v>3585.390275303557</v>
       </c>
       <c r="M14" t="n">
-        <v>3553.537024987068</v>
+        <v>4067.56947481706</v>
       </c>
       <c r="N14" t="n">
-        <v>4118.58008885974</v>
+        <v>4632.612538689732</v>
       </c>
       <c r="O14" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P14" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R14" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="15">
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5445,49 +5445,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5521,52 +5521,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>2550.716641651425</v>
+        <v>1677.761866429961</v>
       </c>
       <c r="L17" t="n">
-        <v>3468.309364968008</v>
+        <v>2595.354589746545</v>
       </c>
       <c r="M17" t="n">
-        <v>3950.48856448151</v>
+        <v>3077.533789260047</v>
       </c>
       <c r="N17" t="n">
-        <v>4515.531628354182</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O17" t="n">
-        <v>5425.686511294926</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P17" t="n">
-        <v>6261.55383939234</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R17" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="18">
@@ -5655,10 +5655,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D19" t="n">
         <v>140.96</v>
@@ -5682,49 +5682,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5767,43 +5767,43 @@
         <v>2332.601309399844</v>
       </c>
       <c r="M20" t="n">
-        <v>2814.780508913348</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N20" t="n">
-        <v>4118.580088859741</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O20" t="n">
-        <v>5028.734971800485</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P20" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236999</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R20" t="n">
         <v>7048.000000000002</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="21">
@@ -5892,22 +5892,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5919,49 +5919,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233303</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083262</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L23" t="n">
-        <v>2332.601309399844</v>
+        <v>2966.719378707943</v>
       </c>
       <c r="M23" t="n">
-        <v>2814.780508913348</v>
+        <v>3448.898578221445</v>
       </c>
       <c r="N23" t="n">
-        <v>3379.82357278602</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.978455726764</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P23" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="24">
@@ -6129,19 +6129,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G25" t="n">
         <v>140.96</v>
@@ -6156,49 +6156,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="26">
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K26" t="n">
-        <v>2124.71495243113</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L26" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M26" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N26" t="n">
-        <v>4118.58008885974</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O26" t="n">
-        <v>5028.734971800483</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P26" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R26" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="27">
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
         <v>140.96</v>
@@ -6393,49 +6393,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546981</v>
+        <v>2580.161715518193</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049114</v>
+        <v>2126.146990020326</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352402</v>
+        <v>1711.662994323615</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859072844</v>
+        <v>1303.215227044057</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361355644</v>
+        <v>894.2358041067774</v>
       </c>
       <c r="G29" t="n">
         <v>492.332768295929</v>
@@ -6481,40 +6481,40 @@
         <v>2814.780508913348</v>
       </c>
       <c r="N29" t="n">
-        <v>3379.82357278602</v>
+        <v>3983.28512581224</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.978455726764</v>
+        <v>4893.440008752984</v>
       </c>
       <c r="P29" t="n">
-        <v>5987.71793717156</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R29" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183284</v>
+        <v>6683.344625183286</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464217</v>
+        <v>6116.713394464219</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543236</v>
+        <v>5461.408922543238</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819278</v>
+        <v>4826.598134790491</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909336</v>
+        <v>4181.776441880549</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666344</v>
+        <v>3583.511963637557</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431293</v>
+        <v>3067.029708402506</v>
       </c>
     </row>
     <row r="30">
@@ -6557,22 +6557,22 @@
         <v>2197.270784374317</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117281</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215415</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182257</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368849</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874249821</v>
+        <v>5925.707874250029</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306373013</v>
+        <v>5569.989306373222</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H31" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6630,49 +6630,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K32" t="n">
-        <v>1713.790319599031</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L32" t="n">
-        <v>2631.383042915614</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523946</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396618</v>
+        <v>4815.933753230444</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337362</v>
+        <v>5726.088636171188</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>6561.955964268602</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>7018.776474070823</v>
       </c>
       <c r="R32" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="33">
@@ -6867,46 +6867,46 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y34" t="n">
         <v>140.96</v>
@@ -6919,16 +6919,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
         <v>894.2358041069906</v>
@@ -6943,52 +6943,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>974.1471760311915</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1713.790319599031</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>2631.383042915614</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>4163.230577523946</v>
+        <v>3077.533789260047</v>
       </c>
       <c r="N35" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R35" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7104,49 +7104,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H38" t="n">
         <v>140.96</v>
@@ -7183,49 +7183,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K38" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L38" t="n">
-        <v>3042.307675747712</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M38" t="n">
-        <v>3524.486875261216</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N38" t="n">
-        <v>4728.273641396618</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R38" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="39">
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7341,49 +7341,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E41" t="n">
         <v>1303.215227044376</v>
@@ -7417,52 +7417,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K41" t="n">
-        <v>2550.716641651425</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L41" t="n">
-        <v>3681.051378010443</v>
+        <v>3159.388586083262</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>3641.567785596765</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>4206.610849469437</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R41" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="42">
@@ -7520,7 +7520,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S42" t="n">
         <v>5159.222422432123</v>
@@ -7578,46 +7578,46 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
         <v>140.96</v>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
         <v>1711.662994324041</v>
@@ -7651,55 +7651,55 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>2332.601309399844</v>
+        <v>2748.266680678619</v>
       </c>
       <c r="M44" t="n">
-        <v>2814.780508913348</v>
+        <v>4280.114215286951</v>
       </c>
       <c r="N44" t="n">
-        <v>3379.82357278602</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O44" t="n">
-        <v>4289.978455726764</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R44" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7709,19 +7709,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E45" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G45" t="n">
         <v>555.8565327448407</v>
@@ -7760,25 +7760,25 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="46">
@@ -7788,22 +7788,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H46" t="n">
         <v>140.96</v>
@@ -7815,49 +7815,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29.34358558167025</v>
       </c>
       <c r="K2" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
-        <v>29.34358558166878</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>716.8751175230994</v>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>645.1956588512442</v>
       </c>
       <c r="Q5" t="n">
-        <v>214.8909222650864</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8458,7 +8458,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>301.7997308240091</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>301.7997308240109</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8695,10 +8695,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,19 +8707,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>609.5571242689093</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>214.8909222650859</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.34358558166878</v>
+        <v>835.1386633165835</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,13 +8947,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>96.6273764716035</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>294.54111633436</v>
@@ -9169,10 +9169,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>265.4073538855554</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.8909222650864</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>294.54111633436</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>383.4716344542453</v>
       </c>
       <c r="N20" t="n">
-        <v>746.2187031047692</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9427,10 +9427,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,16 +9655,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>721.5474740429313</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>746.218703104767</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>294.54111633436</v>
@@ -9877,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>29.34358558166878</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>567.8446588919064</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>609.5571242689093</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10138,10 +10138,10 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q29" t="n">
-        <v>491.4928437002173</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K32" t="n">
-        <v>301.7997308240091</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>205.9955488254456</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>301.7997308240091</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1060.271045550332</v>
+        <v>265.4073538855552</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10831,16 +10831,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N38" t="n">
-        <v>645.1956588512423</v>
+        <v>419.8640113927007</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>214.8909222650855</v>
+        <v>835.1386633165835</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>526.9321130577598</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>496.2158265843882</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,13 +11320,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>746.218703104767</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884794</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23515,10 +23515,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>40.13443591884794</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D19" t="n">
-        <v>285.5362180555555</v>
+        <v>120.3234295121291</v>
       </c>
       <c r="E19" t="n">
         <v>280.9809048369565</v>
@@ -23958,7 +23958,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X19" t="n">
         <v>247.4436454301076</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24186,7 +24186,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T22" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
         <v>150.8146863564251</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F25" t="n">
-        <v>109.1700674243155</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G25" t="n">
-        <v>242.4092826775956</v>
+        <v>77.19649413416917</v>
       </c>
       <c r="H25" t="n">
         <v>205.3472244622743</v>
@@ -24463,10 +24463,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24660,10 +24660,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U28" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>199.1703102162162</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.3883442915008</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.388344291498584</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957469196</v>
+        <v>1.533699957263025</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24861,10 +24861,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>205.3472244622743</v>
+        <v>137.5385800635563</v>
       </c>
       <c r="I31" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24909,7 +24909,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X31" t="n">
-        <v>82.23085688668115</v>
+        <v>247.4436454301076</v>
       </c>
       <c r="Y31" t="n">
         <v>287.4653528494624</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25143,13 +25143,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y34" t="n">
-        <v>287.4653528494624</v>
+        <v>122.2525643060359</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25380,7 +25380,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>40.13443591884794</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25702,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25854,13 +25854,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="44">
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1.388344292978047</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.38834429297583</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26040,13 +26040,13 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F46" t="n">
-        <v>109.1700674243155</v>
+        <v>274.3828559677419</v>
       </c>
       <c r="G46" t="n">
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15865.60085302372</v>
+        <v>1303434.203405506</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31642.41813636738</v>
+        <v>2594295.669746415</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47419.23541971102</v>
+        <v>3885157.136087326</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65375.89833877989</v>
+        <v>5041401.157077136</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83332.56125784876</v>
+        <v>6197645.178066947</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101289.2241769176</v>
+        <v>7353889.199056751</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119245.8870959865</v>
+        <v>8510133.22004655</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137202.5500150554</v>
+        <v>9666377.241036352</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155159.2129341243</v>
+        <v>10822621.26202615</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173115.8758531925</v>
+        <v>11978865.28301609</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191072.5387722614</v>
+        <v>13135109.30400589</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209029.2016913302</v>
+        <v>14291353.3249957</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>226985.8646103992</v>
+        <v>15447597.34598552</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>244942.5275294683</v>
+        <v>16603841.36697534</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262899.1904485374</v>
+        <v>17760085.38796516</v>
       </c>
     </row>
   </sheetData>
@@ -26319,46 +26319,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411311</v>
+        <v>913048.354241131</v>
       </c>
       <c r="C2" t="n">
+        <v>913048.3542411313</v>
+      </c>
+      <c r="D2" t="n">
         <v>913048.3542411317</v>
       </c>
-      <c r="D2" t="n">
-        <v>913048.3542411316</v>
-      </c>
       <c r="E2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="F2" t="n">
         <v>817831.1367976688</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>817831.1367976689</v>
+      </c>
+      <c r="H2" t="n">
         <v>817831.1367976686</v>
       </c>
-      <c r="G2" t="n">
-        <v>817831.1367976686</v>
-      </c>
-      <c r="H2" t="n">
-        <v>817831.1367976689</v>
-      </c>
       <c r="I2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.136797669</v>
       </c>
       <c r="J2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="K2" t="n">
-        <v>817831.1367977571</v>
+        <v>817831.1367977634</v>
       </c>
       <c r="L2" t="n">
         <v>817831.1367976686</v>
       </c>
       <c r="M2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976686</v>
       </c>
       <c r="N2" t="n">
         <v>817831.1367976686</v>
       </c>
       <c r="O2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="P2" t="n">
         <v>817831.1367976688</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224</v>
+        <v>620224.0000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163521</v>
+        <v>89075.80382163513</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715405</v>
+        <v>88773.85276715399</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722107</v>
+        <v>88471.49209722098</v>
       </c>
       <c r="E4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850303</v>
       </c>
       <c r="G4" t="n">
         <v>13783.46259850302</v>
@@ -26444,13 +26444,13 @@
         <v>13783.46259850302</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850303</v>
       </c>
       <c r="J4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.4625985704</v>
+        <v>13783.46259857536</v>
       </c>
       <c r="L4" t="n">
         <v>13783.46259850302</v>
@@ -26465,7 +26465,7 @@
         <v>13783.46259850302</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850301</v>
+        <v>13783.46259850302</v>
       </c>
     </row>
     <row r="5">
@@ -26530,43 +26530,43 @@
         <v>-1393333.449580504</v>
       </c>
       <c r="C6" t="n">
-        <v>651667.5014739777</v>
+        <v>651667.5014739773</v>
       </c>
       <c r="D6" t="n">
-        <v>651969.8621439105</v>
+        <v>651969.8621439107</v>
       </c>
       <c r="E6" t="n">
+        <v>665068.2741991656</v>
+      </c>
+      <c r="F6" t="n">
         <v>665068.2741991658</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>665068.2741991659</v>
+      </c>
+      <c r="H6" t="n">
         <v>665068.2741991656</v>
       </c>
-      <c r="G6" t="n">
-        <v>665068.2741991656</v>
-      </c>
-      <c r="H6" t="n">
-        <v>665068.2741991659</v>
-      </c>
       <c r="I6" t="n">
-        <v>665068.2741991658</v>
+        <v>665068.274199166</v>
       </c>
       <c r="J6" t="n">
-        <v>44844.27419916575</v>
+        <v>44844.27419916599</v>
       </c>
       <c r="K6" t="n">
-        <v>665068.2741991867</v>
+        <v>665068.274199188</v>
       </c>
       <c r="L6" t="n">
         <v>665068.2741991656</v>
       </c>
       <c r="M6" t="n">
-        <v>665068.2741991659</v>
+        <v>665068.2741991656</v>
       </c>
       <c r="N6" t="n">
         <v>665068.2741991656</v>
       </c>
       <c r="O6" t="n">
-        <v>665068.274199166</v>
+        <v>665068.2741991659</v>
       </c>
       <c r="P6" t="n">
         <v>665068.2741991658</v>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,13 +27144,13 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.388344292976228</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27577,7 +27577,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27587,7 +27587,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.533699957573219</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27687,7 +27687,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I4" t="n">
-        <v>248.5691801256921</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27720,7 +27720,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T4" t="n">
-        <v>198.7676812603561</v>
+        <v>349.9327172413397</v>
       </c>
       <c r="U4" t="n">
         <v>150.8146863564251</v>
@@ -27796,10 +27796,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T5" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27839,13 +27839,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27939,10 +27939,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>319.1859637116848</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>268.0582198167198</v>
+        <v>335.6830141890835</v>
       </c>
       <c r="P7" t="n">
         <v>368.8061924102448</v>
@@ -27954,7 +27954,7 @@
         <v>400</v>
       </c>
       <c r="S7" t="n">
-        <v>316.45975839138</v>
+        <v>400</v>
       </c>
       <c r="T7" t="n">
         <v>198.7676812603561</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28112,7 +28112,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28170,16 +28170,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M10" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>187.2441835284046</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>400</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
         <v>368.8061924102448</v>
@@ -29753,19 +29753,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.055013854056597e-10</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.055013854056597e-10</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -34828,13 +34828,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>492.7952476782885</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L2" t="n">
-        <v>956.2049222650858</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34983,7 +34983,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>150.9965757542561</v>
@@ -35016,7 +35016,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -35065,7 +35065,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
         <v>1463.98940395526</v>
@@ -35083,10 +35083,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1489.506091272874</v>
       </c>
       <c r="Q5" t="n">
-        <v>676.3257806511687</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35235,10 +35235,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>67.62479437236368</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35250,7 +35250,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>83.54024160861997</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -35302,13 +35302,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>765.2513929206274</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
         <v>1547.320742028618</v>
@@ -35323,7 +35323,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>461.4348583860824</v>
+        <v>763.2345892100933</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35466,16 +35466,16 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>19.22325579770347</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35539,10 +35539,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
         <v>926.861336683417</v>
@@ -35551,19 +35551,19 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>1180.307693837265</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>1059.201354686716</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q11" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35776,13 +35776,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>956.2049222650858</v>
+        <v>1762</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35791,13 +35791,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>919.3483666068121</v>
+        <v>1015.975743078415</v>
       </c>
       <c r="P14" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
         <v>118.0642805686905</v>
@@ -36013,19 +36013,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.98940395526</v>
+        <v>1012.521640317716</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
@@ -36034,7 +36034,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>676.3257806511687</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
         <v>118.0642805686905</v>
@@ -36259,10 +36259,10 @@
         <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>870.521330932531</v>
       </c>
       <c r="N20" t="n">
-        <v>1316.969272673125</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36271,10 +36271,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,13 +36484,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L23" t="n">
         <v>926.861336683417</v>
@@ -36499,16 +36499,16 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>570.7505695683558</v>
+        <v>1292.298043611287</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1590.529135526397</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
         <v>118.0642805686905</v>
@@ -36721,16 +36721,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L26" t="n">
-        <v>956.2049222650858</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36739,13 +36739,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>919.3483666068121</v>
+        <v>1487.193025498718</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36973,7 +36973,7 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>1180.307693837265</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
@@ -36982,10 +36982,10 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q29" t="n">
-        <v>952.9277020862996</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37049,19 +37049,19 @@
         <v>956.4197244052909</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421645042</v>
+        <v>883.1950421646097</v>
       </c>
       <c r="N30" t="n">
         <v>951.9457859577115</v>
       </c>
       <c r="O30" t="n">
-        <v>989.1444464310483</v>
+        <v>989.1444464311538</v>
       </c>
       <c r="P30" t="n">
-        <v>713.7510799863513</v>
+        <v>713.7510799864568</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160417014</v>
+        <v>228.0617160415959</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37195,22 +37195,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K32" t="n">
-        <v>1048.91401725617</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L32" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M32" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37222,7 +37222,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>29.51871305977608</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37435,19 +37435,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>765.2513929206274</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>1547.320742028618</v>
+        <v>752.4570503638408</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
@@ -37675,16 +37675,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N38" t="n">
-        <v>1215.946228419598</v>
+        <v>990.6145809610565</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37696,7 +37696,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37909,13 +37909,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L41" t="n">
-        <v>1141.752258948503</v>
+        <v>1762</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,7 +37924,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1446.280479664572</v>
       </c>
       <c r="P41" t="n">
         <v>844.3104324216301</v>
@@ -38143,19 +38143,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>1423.077163267806</v>
       </c>
       <c r="M44" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
@@ -38164,13 +38164,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>1590.529135526397</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
